--- a/cleaned_data.xlsx
+++ b/cleaned_data.xlsx
@@ -502,7 +502,7 @@
         <v>286.980010986328</v>
       </c>
       <c r="D4" t="n">
-        <v>318.600006103515</v>
+        <v>325.4800109863281</v>
       </c>
     </row>
     <row r="5">
@@ -767,7 +767,7 @@
         <v>261.769989013671</v>
       </c>
       <c r="D7" t="n">
-        <v>258.079986572265</v>
+        <v>256.8999938964844</v>
       </c>
     </row>
     <row r="8">
